--- a/watermelon3.0.xlsx
+++ b/watermelon3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\win10\Philip\Documents\PythonFiles\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BC7ED-239B-4922-9367-A0C323D2AB16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192A28D-E39B-4718-A807-CF954316F089}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,74 @@
   </si>
   <si>
     <t>乌黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜷缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍蜷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬挺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浊响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清脆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍凹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软粘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,11 +189,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +516,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -486,14 +560,30 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -502,224 +592,510 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/watermelon3.0.xlsx
+++ b/watermelon3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\win10\Philip\Documents\PythonFiles\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192A28D-E39B-4718-A807-CF954316F089}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7103F8E2-180D-47FE-9A57-A96F4D2E6520}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
   </bookViews>
@@ -516,10 +516,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="48" max="48" width="7.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/watermelon3.0.xlsx
+++ b/watermelon3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\win10\Philip\Documents\PythonFiles\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA2A76-AD2B-4E73-91CA-060FFFFD9A8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEE2A7-4F16-4131-A232-673812688757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>

--- a/watermelon3.0.xlsx
+++ b/watermelon3.0.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\win10\Philip\Documents\PythonFiles\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEE2A7-4F16-4131-A232-673812688757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED39AD-5E06-4074-8148-46F68F2E9BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1" sheetId="2" r:id="rId1"/>
-    <sheet name="V2" sheetId="1" r:id="rId2"/>
+    <sheet name="V1_Validation" sheetId="3" r:id="rId1"/>
+    <sheet name="V1" sheetId="2" r:id="rId2"/>
+    <sheet name="V2" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="28">
   <si>
     <t>色泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,11 +510,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7360B619-BF86-4305-B4E4-CD8FB38B5492}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E21696-5EE6-4A74-BD88-7D16BDB8CD94}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,12 +1387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920F19B-935E-4D1A-ADB7-664C0637F454}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="A1:I18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/watermelon3.0.xlsx
+++ b/watermelon3.0.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\win10\Philip\Documents\PythonFiles\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED39AD-5E06-4074-8148-46F68F2E9BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F73A4-2508-4C78-BD49-10C3C6F7A4D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" activeTab="1" xr2:uid="{72C4584B-C578-4227-B532-732D5E49921D}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1_Validation" sheetId="3" r:id="rId1"/>
-    <sheet name="V1" sheetId="2" r:id="rId2"/>
-    <sheet name="V2" sheetId="1" r:id="rId3"/>
+    <sheet name="V1_Training" sheetId="4" r:id="rId1"/>
+    <sheet name="V1_Validation" sheetId="3" r:id="rId2"/>
+    <sheet name="V1" sheetId="2" r:id="rId3"/>
+    <sheet name="V2" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="28">
   <si>
     <t>色泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7360B619-BF86-4305-B4E4-CD8FB38B5492}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4503CBF-00BD-412C-9FEC-ED4B9CB35981}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,19 +617,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -636,22 +637,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -662,45 +663,45 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,27 +721,27 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -754,182 +755,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -940,11 +780,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7360B619-BF86-4305-B4E4-CD8FB38B5492}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E21696-5EE6-4A74-BD88-7D16BDB8CD94}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+      <selection activeCell="A12" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920F19B-935E-4D1A-ADB7-664C0637F454}">
   <dimension ref="A1:I18"/>
   <sheetViews>
